--- a/Logicalrules-Ref-26MayModel.xlsx
+++ b/Logicalrules-Ref-26MayModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CD1A39-CD09-1B4C-866F-99FA69BFC088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99BBB2C-552D-364B-A5B5-28ED37176FBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31740" yWindow="-3140" windowWidth="34620" windowHeight="21140" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
+    <workbookView xWindow="18920" yWindow="460" windowWidth="22040" windowHeight="20660" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Interaction" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="stableStates" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -221,21 +222,12 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>Documentation</t>
-  </si>
-  <si>
     <t>Fz</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>Boolean function</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
     <t>Wg_ex</t>
   </si>
   <si>
@@ -296,16 +288,10 @@
     <t>msh</t>
   </si>
   <si>
-    <t>!vnd &amp; !Gro &amp; en</t>
-  </si>
-  <si>
     <t>Glial_cells</t>
   </si>
   <si>
     <t>Neurons</t>
-  </si>
-  <si>
-    <t>﻿Once Smo is freed of the inhibitory effects of Ptc, Smo then signals through unknown mechanisms to the Fu/Cos2/Ci complex, causing hyperphosphorylation of Fu and Cos2 and causing the complex to loosen its hold on microtubules. This leads to the stabilization of full length Ci, which can then travel to the nucleus and function as a transcriptional activator, upregulating transcription of Hh target genes.</t>
   </si>
   <si>
     <t>Ingham PW, McMahon AP, Genes Dev. 2001 Dec 1;15(23):3059-87. doi: 10.1101/gad.938601. PMID: 11731473.</t>
@@ -329,9 +315,6 @@
     <t>Secreted Hh interacts with its receptor Ptc, thus relieving the repression of Ptc on Smo.</t>
   </si>
   <si>
-    <t xml:space="preserve">﻿One of the functions of En is to maintain hh expression. ﻿ Ci75 (Ci_rep) which moves to the nucleus and represses Hh target genes. </t>
-  </si>
-  <si>
     <t>Spitz encodes ligand that activate Egfr. Argos ﻿functions as an inhibitor of the signaling triggered by Egfr.</t>
   </si>
   <si>
@@ -384,9 +367,6 @@
     <t>RAS/MAPK pathway which is represented with its core components Rl (see 13th reaction) activates Pnt and inhibits Aop.(Aop has not involved in the current model since we are not interested any targets regulated by Aop.)</t>
   </si>
   <si>
-    <t>﻿Gro is phosphorylated by MAPK. Modification of Gro downregulates its repressor activity, causing derepression of pathway target genes. MAPK is no longer active after RTK signalling has been turned off, yet Gro remains stably phosphorylated and its activity attenuated, allowing for sustained RTK target gene expression. ﻿It has been captured that phosphorylated Groucho is a nuclear and stable protein by introducing self loop(see function 16) and its negative regulation of on Gro(see function 17).</t>
-  </si>
-  <si>
     <t>﻿Vnd represses ind and msh in the ventral neuroectoderm, and ind represses msh in the intermediate neuroectoderm.﻿ In en mutants, ind is only expressed in neuroblasts (data not shown) but not maintained in the corresponding neuroectoderm.</t>
   </si>
   <si>
@@ -396,9 +376,6 @@
     <t>The Wg signal is transduced across the membrane involving Frizzled proteins (such as Fz and DFz2) in the adjacent receiving cells.</t>
   </si>
   <si>
-    <t>PKA phosphorylates Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.</t>
-  </si>
-  <si>
     <t>Rl encodes the mitogen activated protein (MAP) kinase, core component of the RAS/MAPK pathway. Egfr activation induces RAS/MAPK pathway.﻿ Cells with a loss of function in Rl produce the same cell-death phenotype as seen in an EGF loss of function.</t>
   </si>
   <si>
@@ -432,13 +409,7 @@
     <t>Bhat et al., Bioessays. 1999 Jun;21(6):472-85. doi: 10.1002/(SICI)1521-1878(199906)21:6&lt;472::AID-BIES4&gt;3.0.CO;2-W. PMID: 10402954.; Im et al., 2015, 10.7554/eLife.10735</t>
   </si>
   <si>
-    <t xml:space="preserve">﻿In ﻿the absence of Hh ligand, repression of Smo allows Drosophila Protein Kinase A (PKA) phosphorylation of Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep. </t>
-  </si>
-  <si>
     <t>Ci_act &amp; ! Ci_rep</t>
-  </si>
-  <si>
-    <t>﻿﻿Ci_rep represses wg, ptc and hh transcription. Gsb maintains the wild-type level and pattern of wg expression in rows 4 and 5 in ptc mutants and in row 5 in wild-type embryos. Ci_act induces transcription of ptc and wg. (Note: The regulation of gsb and ptc might be included later. )</t>
   </si>
   <si>
     <t>(vnd | ind | msh) &amp; (wg  | en)</t>
@@ -481,7 +452,37 @@
 Swarup S, Verheyen EM. Wnt/Wingless signaling in Drosophila. Cold Spring Harb Perspect Biol. 2012 Jun 1;4(6):a007930. doi: 10.1101/cshperspect.a007930. PMID: 22535229; PMCID: PMC3367557. Bejsovec, A. (2006, December 4). Flying at the head of the pack: Wnt biology in Drosophila. Oncogene. https://doi.org/10.1038/sj.onc.1210051</t>
   </si>
   <si>
-    <t>Wg binding to Fz and Arrow brings them together, thereby recruiting Dsh to the membrane. When the destruction complex is inactivated by receptor/Dsh activity, Arm/beta-catenin translocates to the nucleus where it binds the N-terminus of Tcf (also known as dTCF or  Pan), displacing the Groucho co-repressor and recruiting activators to drive target gene expression.  The recruitment of Dsh to the membrane is not included in our model. We considered the main event that Wg binding to Fz activates Arm translocation to the nucleus where it binds to Pan, thereby drives target gene expression. Wg protein that is transcribed and secreted from an anterior row of cells maintains the expression of a transcription factor, engrailed (en), in adjoining, posterior cells.</t>
+    <t>Wg binding to Fz and Arrow brings them together, thereby recruiting Dsh to the membrane. When the destruction complex is inactivated by receptor/Dsh activity, Arm/beta-catenin translocates to the nucleus where it binds the N-terminus of Tcf (also known as dTCF or  Pan), displacing the Groucho co-repressor and recruiting activators to drive target gene expression.  The recruitment of Dsh to the membrane is not included in our model. We considered the main event that Wg binding to Fz activates Arm translocation to the nucleus where it binds to ﻿the N-terminus of Pan, thereby recruiting activators to drive target gene expression. Wg protein that is transcribed and secreted from an anterior row of cells maintains the expression of a transcription factor, engrailed (en), in adjoining, posterior cells.</t>
+  </si>
+  <si>
+    <t>﻿One of the functions of En is to maintain hh expression. ﻿ Ci75 (Ci_rep) moves to the nucleus and represses hh.</t>
+  </si>
+  <si>
+    <t>﻿Once Smo is freed of the inhibitory effects of Ptc, Smo signals through unknown mechanisms to the Fu/Cos2/Ci complex, causing hyperphosphorylation of Fu and Cos2 and causing the complex to loosen its hold on microtubules. This leads to the stabilization of full length Ci, which can then travel to the nucleus and function as a transcriptional activator, upregulating transcription of Hh target genes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿In ﻿the absence of Hh ligand, repression of Smo allows Drosophila Protein Kinase A (PKA) phosphorylation of Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKA phosphorylates Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep. ﻿Ci is repressed by En. Ci is a cytoplasmic protein and it is not known this form has a function. It can be cleaved to generate Ci_rep, a 75 kD transcriptional repressor or full-length Ci, a 155 kD transcriptional activator. Since the exact mechanism leading to generation of the different froms of Ci is not fully know,  these reactions were omitted from the model. Ci repression by En is introduced into the model via two inhibitory edges to the both forms of Ci.   </t>
+  </si>
+  <si>
+    <t>﻿﻿Ci_rep represses wg, ptc and hh transcription. Ci_act induces transcription of ptc and wg. Gsb maintains the wild-type level and pattern of wg expression in rows 4 and 5 in ptc mutants and in row 5 in wild-type embryos.(Note: The regulation of gsb and ptc might be included later. )</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Boolean functions</t>
+  </si>
+  <si>
+    <t>Documentation of Boolean functions</t>
+  </si>
+  <si>
+    <t>!vnd &amp; !Gro</t>
+  </si>
+  <si>
+    <t>﻿Gro is phosphorylated by MAPK. Modification of Gro downregulates its repressor activity, causing derepression of pathway target genes. MAPK is no longer active after RTK signalling has been turned off, yet Gro remains stably phosphorylated and its activity attenuated, allowing for sustained RTK target gene expression. ﻿#phosphorylated Groucho is a nuclear and stable protein. This was captured in the model by introducing self-loop(see function 16) and  Gro inhibition (see function 17).</t>
   </si>
 </sst>
 </file>
@@ -583,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -938,11 +939,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1074,6 +1090,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1448,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CE21BD-1222-F943-AE91-63D74D2723EB}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1461,14 +1480,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>63</v>
+      <c r="A1" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>142</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>59</v>
@@ -1476,307 +1495,307 @@
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="B5" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="C21" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="52" t="s">
+      <c r="A22" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -1799,6 +1818,7 @@
     <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2222,58 +2242,58 @@
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>72</v>
       </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>73</v>
       </c>
-      <c r="P2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" t="s">
-        <v>79</v>
-      </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s">
         <v>15</v>
@@ -2282,16 +2302,16 @@
         <v>14</v>
       </c>
       <c r="V2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s">
         <v>6</v>
       </c>
       <c r="X2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
@@ -2305,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2379,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2675,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2971,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3267,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3563,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3859,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4007,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4155,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4303,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4442,22 +4462,22 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -4466,13 +4486,13 @@
         <v>15</v>
       </c>
       <c r="K37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.2">
@@ -6144,28 +6164,28 @@
       </c>
     </row>
     <row r="85" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
     </row>
     <row r="86" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C86" s="36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D86" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F86" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G86" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I86" s="37" t="s">
         <v>14</v>
@@ -6174,13 +6194,13 @@
         <v>15</v>
       </c>
       <c r="K86" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L86" s="37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M86" s="38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
@@ -6375,14 +6395,14 @@
       <c r="P91" s="39">
         <v>1</v>
       </c>
-      <c r="Q91" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="R91" s="62"/>
+      <c r="Q91" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="R91" s="63"/>
       <c r="S91" s="39">
         <v>7</v>
       </c>
-      <c r="T91" s="69"/>
+      <c r="T91" s="70"/>
     </row>
     <row r="92" spans="2:20" ht="22" x14ac:dyDescent="0.25">
       <c r="B92" s="41">
@@ -6422,16 +6442,16 @@
         <v>1</v>
       </c>
       <c r="P92" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q92" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="Q92" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="R92" s="57"/>
+      <c r="R92" s="58"/>
       <c r="S92" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="T92" s="70"/>
+        <v>61</v>
+      </c>
+      <c r="T92" s="71"/>
     </row>
     <row r="93" spans="2:20" ht="22" x14ac:dyDescent="0.25">
       <c r="B93" s="41">
@@ -6471,17 +6491,17 @@
         <v>1</v>
       </c>
       <c r="P93" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q93" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="R93" s="63"/>
+        <v>99</v>
+      </c>
+      <c r="Q93" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="R93" s="64"/>
       <c r="S93" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="T93" s="57" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+      <c r="T93" s="58" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="2:20" ht="22" x14ac:dyDescent="0.25">
@@ -6522,16 +6542,16 @@
         <v>1</v>
       </c>
       <c r="P94" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q94" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="R94" s="64"/>
+        <v>102</v>
+      </c>
+      <c r="Q94" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="R94" s="65"/>
       <c r="S94" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="T94" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="T94" s="59"/>
     </row>
     <row r="95" spans="2:20" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="41">
@@ -6571,14 +6591,14 @@
         <v>1</v>
       </c>
       <c r="P95" s="48"/>
-      <c r="Q95" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="R95" s="66"/>
-      <c r="S95" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="T95" s="57" t="s">
+      <c r="Q95" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="R95" s="67"/>
+      <c r="S95" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="T95" s="58" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6620,12 +6640,12 @@
         <v>1</v>
       </c>
       <c r="P96" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q96" s="67"/>
-      <c r="R96" s="56"/>
-      <c r="S96" s="56"/>
-      <c r="T96" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="Q96" s="68"/>
+      <c r="R96" s="57"/>
+      <c r="S96" s="57"/>
+      <c r="T96" s="59"/>
     </row>
     <row r="97" spans="2:21" ht="22" x14ac:dyDescent="0.25">
       <c r="B97" s="41">
@@ -6665,16 +6685,16 @@
         <v>1</v>
       </c>
       <c r="P97" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q97" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="R97" s="55"/>
-      <c r="S97" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="T97" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q97" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="R97" s="56"/>
+      <c r="S97" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="T97" s="58" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6716,12 +6736,12 @@
         <v>1</v>
       </c>
       <c r="P98" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q98" s="67"/>
-      <c r="R98" s="56"/>
-      <c r="S98" s="56"/>
-      <c r="T98" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="Q98" s="68"/>
+      <c r="R98" s="57"/>
+      <c r="S98" s="57"/>
+      <c r="T98" s="59"/>
     </row>
     <row r="99" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B99" s="41">
